--- a/raw_data/20200818_saline/20200818_Sensor0_Test_15.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_15.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E709F-0498-4487-BD08-2EB35AE7BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>12603.166009</v>
       </c>
       <c r="B2" s="1">
-        <v>3.500879</v>
+        <v>3.5008789999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.496000</v>
+        <v>901.49599999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.768000</v>
+        <v>-194.768</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>12613.313131</v>
+        <v>12613.313131000001</v>
       </c>
       <c r="G2" s="1">
         <v>3.503698</v>
       </c>
       <c r="H2" s="1">
-        <v>918.228000</v>
+        <v>918.22799999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.953000</v>
+        <v>-164.953</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>12623.433999</v>
+        <v>12623.433999000001</v>
       </c>
       <c r="L2" s="1">
-        <v>3.506509</v>
+        <v>3.5065089999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>940.516000</v>
+        <v>940.51599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.444000</v>
+        <v>-118.444</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>12633.906529</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.509418</v>
+        <v>3.5094180000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.924000</v>
+        <v>946.92399999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.189000</v>
+        <v>-103.18899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>12644.475283</v>
       </c>
       <c r="V2" s="1">
-        <v>3.512354</v>
+        <v>3.5123540000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>953.302000</v>
+        <v>953.30200000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.645900</v>
+        <v>-89.645899999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>12654.938421</v>
+        <v>12654.938421000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.515261</v>
+        <v>3.5152610000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.451000</v>
+        <v>960.45100000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.294500</v>
+        <v>-80.294499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>12665.829544</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.518286</v>
+        <v>3.5182859999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.490000</v>
+        <v>965.49</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.047000</v>
+        <v>-80.046999999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>12676.227176</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.521174</v>
+        <v>3.5211739999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.480000</v>
+        <v>973.48</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.972100</v>
+        <v>-87.972099999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>12686.755754</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.524099</v>
+        <v>3.5240990000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.744000</v>
+        <v>982.74400000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>12697.767437</v>
@@ -616,73 +1032,73 @@
         <v>3.527158</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.216000</v>
+        <v>994.21600000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.788000</v>
+        <v>-124.788</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>12708.960156</v>
+        <v>12708.960155999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.530267</v>
+        <v>3.5302669999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.640000</v>
+        <v>-143.63999999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>12719.873134</v>
+        <v>12719.873133999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.533298</v>
+        <v>3.5332979999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.420000</v>
+        <v>1049.42</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.951000</v>
+        <v>-228.95099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>12730.678976</v>
+        <v>12730.678975999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.536300</v>
+        <v>3.5363000000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.020000</v>
+        <v>1129.02</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.845000</v>
+        <v>-365.84500000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>12741.820609</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.539395</v>
+        <v>3.5393949999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.034000</v>
+        <v>-578.03399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>12752.590274</v>
@@ -691,90 +1107,90 @@
         <v>3.542386</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.290000</v>
+        <v>1409.29</v>
       </c>
       <c r="BV2" s="1">
-        <v>-805.486000</v>
+        <v>-805.48599999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>12763.734860</v>
+        <v>12763.73486</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.545482</v>
+        <v>3.5454819999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1572.490000</v>
+        <v>1572.49</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1042.220000</v>
+        <v>-1042.22</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>12774.618080</v>
+        <v>12774.61808</v>
       </c>
       <c r="CD2" s="1">
         <v>3.548505</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.680000</v>
+        <v>1987.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1594.660000</v>
+        <v>-1594.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>12603.304360</v>
+        <v>12603.30436</v>
       </c>
       <c r="B3" s="1">
         <v>3.500918</v>
       </c>
       <c r="C3" s="1">
-        <v>901.418000</v>
+        <v>901.41800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.706000</v>
+        <v>-194.70599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>12613.699552</v>
       </c>
       <c r="G3" s="1">
-        <v>3.503805</v>
+        <v>3.5038049999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>918.544000</v>
+        <v>918.54399999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.153000</v>
+        <v>-165.15299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>12623.789629</v>
+        <v>12623.789629000001</v>
       </c>
       <c r="L3" s="1">
-        <v>3.506608</v>
+        <v>3.5066079999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>940.367000</v>
+        <v>940.36699999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.370000</v>
+        <v>-118.37</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>12634.288943</v>
@@ -783,178 +1199,178 @@
         <v>3.509525</v>
       </c>
       <c r="R3" s="1">
-        <v>946.913000</v>
+        <v>946.91300000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>12644.861665</v>
       </c>
       <c r="V3" s="1">
-        <v>3.512462</v>
+        <v>3.5124620000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>953.271000</v>
+        <v>953.27099999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.645100</v>
+        <v>-89.645099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>12655.674947</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.515465</v>
+        <v>3.5154649999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.542000</v>
+        <v>960.54200000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.288400</v>
+        <v>-80.288399999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>12666.207493</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.518391</v>
+        <v>3.5183909999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.496000</v>
+        <v>965.49599999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.022300</v>
+        <v>-80.022300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>12676.567432</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.521269</v>
+        <v>3.5212690000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.499000</v>
+        <v>973.49900000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.966100</v>
+        <v>-87.966099999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>12687.123785</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.524201</v>
+        <v>3.5242010000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.756000</v>
+        <v>982.75599999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>12698.485642</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.527357</v>
+        <v>3.5273569999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.211000</v>
+        <v>994.21100000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.801000</v>
+        <v>-124.801</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>12709.632270</v>
+        <v>12709.63227</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.530453</v>
+        <v>3.5304530000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.680000</v>
+        <v>-143.68</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>12720.305150</v>
+        <v>12720.30515</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.533418</v>
+        <v>3.5334180000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.945000</v>
+        <v>-228.94499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>12731.055473</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.536404</v>
+        <v>3.5364040000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.050000</v>
+        <v>1129.05</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.878000</v>
+        <v>-365.87799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>12742.258113</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.539516</v>
+        <v>3.5395159999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.044000</v>
+        <v>-578.04399999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>12753.054499</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.542515</v>
+        <v>3.5425149999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.280000</v>
+        <v>1409.28</v>
       </c>
       <c r="BV3" s="1">
-        <v>-805.489000</v>
+        <v>-805.48900000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>12764.209523</v>
@@ -963,135 +1379,135 @@
         <v>3.545614</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1572.360000</v>
+        <v>1572.36</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1042.260000</v>
+        <v>-1042.26</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>12775.177063</v>
+        <v>12775.177062999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.548660</v>
+        <v>3.5486599999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1986.880000</v>
+        <v>1986.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1594.470000</v>
+        <v>-1594.47</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>12603.646599</v>
       </c>
       <c r="B4" s="1">
-        <v>3.501013</v>
+        <v>3.5010129999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.342000</v>
+        <v>901.34199999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.698000</v>
+        <v>-194.69800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>12614.039276</v>
       </c>
       <c r="G4" s="1">
-        <v>3.503900</v>
+        <v>3.5038999999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>918.384000</v>
+        <v>918.38400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.727000</v>
+        <v>-164.727</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>12624.133357</v>
+        <v>12624.133357000001</v>
       </c>
       <c r="L4" s="1">
         <v>3.506704</v>
       </c>
       <c r="M4" s="1">
-        <v>940.342000</v>
+        <v>940.34199999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.309000</v>
+        <v>-118.309</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>12634.989790</v>
+        <v>12634.98979</v>
       </c>
       <c r="Q4" s="1">
         <v>3.509719</v>
       </c>
       <c r="R4" s="1">
-        <v>946.922000</v>
+        <v>946.92200000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>12645.550146</v>
       </c>
       <c r="V4" s="1">
-        <v>3.512653</v>
+        <v>3.5126529999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>953.302000</v>
+        <v>953.30200000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.598100</v>
+        <v>-89.598100000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>12656.020658</v>
+        <v>12656.020657999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.515561</v>
+        <v>3.5155609999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.579000</v>
+        <v>960.57899999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.319000</v>
+        <v>-80.319000000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>12666.551748</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.518487</v>
+        <v>3.5184869999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.485000</v>
+        <v>965.48500000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.030600</v>
+        <v>-80.030600000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>12676.916615</v>
@@ -1100,422 +1516,422 @@
         <v>3.521366</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.497000</v>
+        <v>973.49699999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.973900</v>
+        <v>-87.9739</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>12687.792889</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.524387</v>
+        <v>3.5243869999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.754000</v>
+        <v>982.75400000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.088000</v>
+        <v>-103.08799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>12698.906250</v>
+        <v>12698.90625</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.527474</v>
+        <v>3.5274740000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.239000</v>
+        <v>994.23900000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.796000</v>
+        <v>-124.79600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>12710.050891</v>
+        <v>12710.050891000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.530570</v>
+        <v>3.53057</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.662000</v>
+        <v>-143.66200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>12720.663757</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.533518</v>
+        <v>3.5335179999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.943000</v>
+        <v>-228.94300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>12731.458686</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.536516</v>
+        <v>3.5365160000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.970000</v>
+        <v>1128.97</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.927000</v>
+        <v>-365.92700000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>12742.677199</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.539633</v>
+        <v>3.5396329999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.710000</v>
+        <v>1260.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.081000</v>
+        <v>-578.08100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>12753.489987</v>
+        <v>12753.489987000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.542636</v>
+        <v>3.5426359999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.170000</v>
+        <v>1409.17</v>
       </c>
       <c r="BV4" s="1">
-        <v>-805.512000</v>
+        <v>-805.51199999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>12764.639555</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.545733</v>
+        <v>3.5457329999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1572.450000</v>
+        <v>1572.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1042.350000</v>
+        <v>-1042.3499999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>12775.699845</v>
+        <v>12775.699844999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.548806</v>
+        <v>3.5488059999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1596.210000</v>
+        <v>-1596.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>12603.989335</v>
       </c>
       <c r="B5" s="1">
-        <v>3.501108</v>
+        <v>3.5011079999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>901.449000</v>
+        <v>901.44899999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.563000</v>
+        <v>-194.56299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>12614.629017</v>
+        <v>12614.629016999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3.504064</v>
+        <v>3.5040640000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.053000</v>
+        <v>918.053</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.141000</v>
+        <v>-165.14099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>12624.826080</v>
+        <v>12624.826080000001</v>
       </c>
       <c r="L5" s="1">
-        <v>3.506896</v>
+        <v>3.5068959999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>940.661000</v>
+        <v>940.66099999999994</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.235000</v>
+        <v>-118.235</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>12635.340958</v>
+        <v>12635.340958000001</v>
       </c>
       <c r="Q5" s="1">
         <v>3.509817</v>
       </c>
       <c r="R5" s="1">
-        <v>946.936000</v>
+        <v>946.93600000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.159000</v>
+        <v>-103.15900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>12645.891856</v>
       </c>
       <c r="V5" s="1">
-        <v>3.512748</v>
+        <v>3.5127480000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>953.220000</v>
+        <v>953.22</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.703200</v>
+        <v>-89.703199999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>12656.371330</v>
+        <v>12656.37133</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.515659</v>
+        <v>3.5156589999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.589000</v>
+        <v>960.58900000000006</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.300300</v>
+        <v>-80.300299999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>12667.195029</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.518665</v>
+        <v>3.5186649999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.534000</v>
+        <v>965.53399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.003700</v>
+        <v>-80.003699999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>12677.565382</v>
+        <v>12677.565382000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.521546</v>
+        <v>3.5215459999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.502000</v>
+        <v>973.50199999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.974500</v>
+        <v>-87.974500000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>12688.237184</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.524510</v>
+        <v>3.5245099999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.755000</v>
+        <v>982.755</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.080000</v>
+        <v>-103.08</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>12699.298620</v>
+        <v>12699.29862</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.527583</v>
+        <v>3.5275829999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.221000</v>
+        <v>994.221</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.805000</v>
+        <v>-124.80500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>12710.427819</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.530674</v>
+        <v>3.5306739999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.658000</v>
+        <v>-143.65799999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>12721.026332</v>
+        <v>12721.026331999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.533618</v>
+        <v>3.5336180000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.420000</v>
+        <v>1049.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.944000</v>
+        <v>-228.94399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>12731.882302</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.536634</v>
+        <v>3.5366339999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.040000</v>
+        <v>1129.04</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.871000</v>
+        <v>-365.87099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>12743.101775</v>
+        <v>12743.101774999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.539750</v>
+        <v>3.5397500000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.075000</v>
+        <v>-578.07500000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>12753.903650</v>
+        <v>12753.90365</v>
       </c>
       <c r="BT5" s="1">
         <v>3.542751</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.160000</v>
+        <v>1409.16</v>
       </c>
       <c r="BV5" s="1">
-        <v>-805.552000</v>
+        <v>-805.55200000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>12765.065124</v>
+        <v>12765.065124000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.545851</v>
+        <v>3.5458509999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1572.590000</v>
+        <v>1572.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1042.290000</v>
+        <v>-1042.29</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>12776.236019</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.548954</v>
+        <v>3.5489540000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1987.860000</v>
+        <v>1987.86</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1595.000000</v>
+        <v>-1595</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>12604.671831</v>
       </c>
       <c r="B6" s="1">
-        <v>3.501298</v>
+        <v>3.5012979999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>901.299000</v>
+        <v>901.29899999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.606000</v>
+        <v>-194.60599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>12614.740618</v>
@@ -1524,163 +1940,163 @@
         <v>3.504095</v>
       </c>
       <c r="H6" s="1">
-        <v>918.321000</v>
+        <v>918.32100000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.161000</v>
+        <v>-165.161</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>12625.171483</v>
       </c>
       <c r="L6" s="1">
-        <v>3.506992</v>
+        <v>3.5069919999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.459000</v>
+        <v>940.45899999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.342000</v>
+        <v>-118.342</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>12635.689678</v>
+        <v>12635.689678000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.509914</v>
+        <v>3.5099140000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>946.926000</v>
+        <v>946.92600000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>12646.237071</v>
       </c>
       <c r="V6" s="1">
-        <v>3.512844</v>
+        <v>3.5128439999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>953.333000</v>
+        <v>953.33299999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.612800</v>
+        <v>-89.612799999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>12657.031537</v>
+        <v>12657.031537000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.515842</v>
+        <v>3.5158420000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.561000</v>
+        <v>960.56100000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.296600</v>
+        <v>-80.296599999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>12667.580915</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.518772</v>
+        <v>3.5187719999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.556000</v>
+        <v>965.55600000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.001800</v>
+        <v>-80.001800000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>12677.961685</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.521656</v>
+        <v>3.5216560000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.485000</v>
+        <v>973.48500000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.975600</v>
+        <v>-87.9756</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>12688.594423</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.524610</v>
+        <v>3.52461</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.745000</v>
+        <v>982.745</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.086000</v>
+        <v>-103.086</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>12699.664173</v>
+        <v>12699.664172999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.527684</v>
+        <v>3.5276839999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.204000</v>
+        <v>994.20399999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.785000</v>
+        <v>-124.785</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>12710.827594</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.530785</v>
+        <v>3.5307849999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.900000</v>
+        <v>1003.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.659000</v>
+        <v>-143.65899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>12721.454380</v>
+        <v>12721.454379999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.533737</v>
+        <v>3.5337369999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.420000</v>
+        <v>1049.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.921000</v>
+        <v>-228.92099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>12732.206654</v>
@@ -1689,58 +2105,58 @@
         <v>3.536724</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.892000</v>
+        <v>-365.892</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>12743.499071</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.539861</v>
+        <v>3.5398610000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.730000</v>
+        <v>1260.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.085000</v>
+        <v>-578.08500000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>12754.333184</v>
+        <v>12754.333183999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.542870</v>
+        <v>3.5428700000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.120000</v>
+        <v>1409.12</v>
       </c>
       <c r="BV6" s="1">
-        <v>-805.615000</v>
+        <v>-805.61500000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>12765.484242</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.545968</v>
+        <v>3.5459679999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1572.580000</v>
+        <v>1572.58</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1042.190000</v>
+        <v>-1042.19</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>12776.778643</v>
@@ -1749,45 +2165,45 @@
         <v>3.549105</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.730000</v>
+        <v>1985.73</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1595.210000</v>
+        <v>-1595.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>12605.013079</v>
       </c>
       <c r="B7" s="1">
-        <v>3.501393</v>
+        <v>3.5013930000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>901.386000</v>
+        <v>901.38599999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.644000</v>
+        <v>-194.64400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>12615.081370</v>
+        <v>12615.08137</v>
       </c>
       <c r="G7" s="1">
-        <v>3.504189</v>
+        <v>3.5041890000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>917.974000</v>
+        <v>917.97400000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.161000</v>
+        <v>-165.161</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>12625.516736</v>
@@ -1796,148 +2212,148 @@
         <v>3.507088</v>
       </c>
       <c r="M7" s="1">
-        <v>940.484000</v>
+        <v>940.48400000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.536000</v>
+        <v>-118.536</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>12636.343868</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.510096</v>
+        <v>3.5100959999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.864000</v>
+        <v>946.86400000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>12646.935935</v>
       </c>
       <c r="V7" s="1">
-        <v>3.513038</v>
+        <v>3.5130379999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.282000</v>
+        <v>953.28200000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.632400</v>
+        <v>-89.632400000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>12657.415409</v>
+        <v>12657.415408999999</v>
       </c>
       <c r="AA7" s="1">
         <v>3.515949</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.863000</v>
+        <v>960.86300000000006</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.436500</v>
+        <v>-80.436499999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>12667.920675</v>
+        <v>12667.920674999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.518867</v>
+        <v>3.5188670000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.545000</v>
+        <v>965.54499999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.025400</v>
+        <v>-80.025400000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>12678.312885</v>
+        <v>12678.312884999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.521754</v>
+        <v>3.5217540000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.507000</v>
+        <v>973.50699999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.968300</v>
+        <v>-87.968299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>12688.955511</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.524710</v>
+        <v>3.5247099999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.758000</v>
+        <v>982.75800000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>12700.080810</v>
+        <v>12700.080809999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.527800</v>
+        <v>3.5278</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.225000</v>
+        <v>994.22500000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.794000</v>
+        <v>-124.794</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>12711.274489</v>
+        <v>12711.274488999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.530910</v>
+        <v>3.53091</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.668000</v>
+        <v>-143.66800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>12721.748013</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.533819</v>
+        <v>3.5338189999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.938000</v>
+        <v>-228.93799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>12732.583255</v>
@@ -1946,58 +2362,58 @@
         <v>3.536829</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.896000</v>
+        <v>-365.89600000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>12743.898847</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.539972</v>
+        <v>3.5399720000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.110000</v>
+        <v>-578.11</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>12754.759249</v>
+        <v>12754.759249000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.542989</v>
+        <v>3.5429889999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.110000</v>
+        <v>1409.11</v>
       </c>
       <c r="BV7" s="1">
-        <v>-805.568000</v>
+        <v>-805.56799999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>12765.937089</v>
+        <v>12765.937088999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.546094</v>
+        <v>3.5460940000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1572.590000</v>
+        <v>1572.59</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1042.150000</v>
+        <v>-1042.1500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>12777.319282</v>
@@ -2006,75 +2422,75 @@
         <v>3.549255</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.180000</v>
+        <v>1987.18</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1596.240000</v>
+        <v>-1596.24</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>12605.351382</v>
+        <v>12605.351382000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.501486</v>
+        <v>3.5014859999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>901.536000</v>
+        <v>901.53599999999994</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.520000</v>
+        <v>-194.52</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>12615.733608</v>
       </c>
       <c r="G8" s="1">
-        <v>3.504370</v>
+        <v>3.5043700000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>918.514000</v>
+        <v>918.51400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.155000</v>
+        <v>-165.155</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>12626.163482</v>
       </c>
       <c r="L8" s="1">
-        <v>3.507268</v>
+        <v>3.5072679999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>940.498000</v>
+        <v>940.49800000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.217000</v>
+        <v>-118.217</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>12636.734752</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.510204</v>
+        <v>3.5102039999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.858000</v>
+        <v>946.85799999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>12647.280687</v>
@@ -2083,103 +2499,103 @@
         <v>3.513134</v>
       </c>
       <c r="W8" s="1">
-        <v>953.327000</v>
+        <v>953.327</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.593200</v>
+        <v>-89.593199999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>12657.765120</v>
+        <v>12657.76512</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.516046</v>
+        <v>3.5160459999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.451000</v>
+        <v>960.45100000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.319200</v>
+        <v>-80.319199999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>12668.257458</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.518960</v>
+        <v>3.5189599999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.527000</v>
+        <v>965.52700000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.029700</v>
+        <v>-80.029700000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>12678.661541</v>
+        <v>12678.661540999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.521850</v>
+        <v>3.5218500000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.475000</v>
+        <v>973.47500000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.963200</v>
+        <v>-87.963200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>12689.382070</v>
+        <v>12689.38207</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.524828</v>
+        <v>3.5248279999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.746000</v>
+        <v>982.74599999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.075000</v>
+        <v>-103.075</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>12700.392295</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.527887</v>
+        <v>3.5278870000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.236000</v>
+        <v>994.23599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.796000</v>
+        <v>-124.79600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>12711.536872</v>
+        <v>12711.536872000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.530982</v>
+        <v>3.5309819999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.687000</v>
+        <v>-143.68700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>12722.107613</v>
@@ -2188,28 +2604,28 @@
         <v>3.533919</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.420000</v>
+        <v>1049.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.958000</v>
+        <v>-228.958</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>12732.959116</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.536933</v>
+        <v>3.5369329999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.937000</v>
+        <v>-365.93700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>12744.320942</v>
@@ -2218,270 +2634,270 @@
         <v>3.540089</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.700000</v>
+        <v>1260.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.075000</v>
+        <v>-578.07500000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>12755.600463</v>
+        <v>12755.600463000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.543222</v>
+        <v>3.5432220000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.040000</v>
+        <v>1409.04</v>
       </c>
       <c r="BV8" s="1">
-        <v>-805.567000</v>
+        <v>-805.56700000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>12766.386961</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.546219</v>
+        <v>3.5462189999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1572.390000</v>
+        <v>1572.39</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1042.120000</v>
+        <v>-1042.1199999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>12777.858931</v>
+        <v>12777.858931000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.549405</v>
+        <v>3.5494050000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.910000</v>
+        <v>1986.91</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1594.470000</v>
+        <v>-1594.47</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>12606.008084</v>
+        <v>12606.008083999999</v>
       </c>
       <c r="B9" s="1">
-        <v>3.501669</v>
+        <v>3.5016690000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>901.288000</v>
+        <v>901.28800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.726000</v>
+        <v>-194.726</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>12616.116526</v>
       </c>
       <c r="G9" s="1">
-        <v>3.504477</v>
+        <v>3.5044770000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>918.246000</v>
+        <v>918.24599999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.943000</v>
+        <v>-164.94300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>12626.553339</v>
       </c>
       <c r="L9" s="1">
-        <v>3.507376</v>
+        <v>3.5073759999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>940.507000</v>
+        <v>940.50699999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.420000</v>
+        <v>-118.42</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>12637.081460</v>
+        <v>12637.081459999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.510300</v>
+        <v>3.5103</v>
       </c>
       <c r="R9" s="1">
-        <v>946.881000</v>
+        <v>946.88099999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>12647.621439</v>
       </c>
       <c r="V9" s="1">
-        <v>3.513228</v>
+        <v>3.5132279999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>953.291000</v>
+        <v>953.29100000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.635600</v>
+        <v>-89.635599999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>12658.114272</v>
+        <v>12658.114272000001</v>
       </c>
       <c r="AA9" s="1">
         <v>3.516143</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.559000</v>
+        <v>960.55899999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.264100</v>
+        <v>-80.264099999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>12668.677074</v>
+        <v>12668.677073999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.519077</v>
+        <v>3.5190769999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.480000</v>
+        <v>965.48</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.969200</v>
+        <v>-79.969200000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12679.083141</v>
+        <v>12679.083140999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.521968</v>
+        <v>3.5219680000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.494000</v>
+        <v>973.49400000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.990300</v>
+        <v>-87.990300000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>12689.675243</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.524910</v>
+        <v>3.5249100000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.759000</v>
+        <v>982.75900000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.091000</v>
+        <v>-103.09099999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>12700.756327</v>
+        <v>12700.756326999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.527988</v>
+        <v>3.5279880000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.206000</v>
+        <v>994.20600000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.783000</v>
+        <v>-124.783</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>12711.894985</v>
+        <v>12711.894985000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.531082</v>
+        <v>3.5310820000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.761000</v>
+        <v>-143.761</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>12722.470188</v>
+        <v>12722.470187999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.534019</v>
+        <v>3.5340189999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.410000</v>
+        <v>1049.4100000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.935000</v>
+        <v>-228.935</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>12733.733359</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.537148</v>
+        <v>3.5371480000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.905000</v>
+        <v>-365.90499999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>12745.132133</v>
+        <v>12745.132132999999</v>
       </c>
       <c r="BO9" s="1">
         <v>3.540314</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.068000</v>
+        <v>-578.06799999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>12756.032975</v>
@@ -2490,135 +2906,135 @@
         <v>3.543342</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.990000</v>
+        <v>1408.99</v>
       </c>
       <c r="BV9" s="1">
-        <v>-805.597000</v>
+        <v>-805.59699999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>12766.817521</v>
+        <v>12766.817521000001</v>
       </c>
       <c r="BY9" s="1">
         <v>3.546338</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1572.440000</v>
+        <v>1572.44</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1042.420000</v>
+        <v>-1042.42</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>12778.706593</v>
+        <v>12778.706593000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.549641</v>
+        <v>3.5496409999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.320000</v>
+        <v>1987.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1596.200000</v>
+        <v>-1596.2</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>12606.379061</v>
       </c>
       <c r="B10" s="1">
-        <v>3.501772</v>
+        <v>3.5017719999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>901.312000</v>
+        <v>901.31200000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.516000</v>
+        <v>-194.51599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>12616.461240</v>
+        <v>12616.461240000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.504573</v>
+        <v>3.5045730000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>918.182000</v>
+        <v>918.18200000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.132000</v>
+        <v>-165.13200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>12626.899546</v>
+        <v>12626.899546000001</v>
       </c>
       <c r="L10" s="1">
-        <v>3.507472</v>
+        <v>3.5074719999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.415000</v>
+        <v>940.41499999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.338000</v>
+        <v>-118.33799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>12637.429148</v>
+        <v>12637.429147999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.510397</v>
+        <v>3.5103970000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>946.904000</v>
+        <v>946.904</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>12648.043997</v>
+        <v>12648.043997000001</v>
       </c>
       <c r="V10" s="1">
-        <v>3.513346</v>
+        <v>3.5133459999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.281000</v>
+        <v>953.28099999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.627100</v>
+        <v>-89.627099999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>12658.532895</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.516259</v>
+        <v>3.5162589999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.490000</v>
+        <v>960.49</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.353700</v>
+        <v>-80.353700000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>12668.956817</v>
@@ -2627,195 +3043,195 @@
         <v>3.519155</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.520000</v>
+        <v>965.52</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.044700</v>
+        <v>-80.044700000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>12679.362893</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.522045</v>
+        <v>3.5220449999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.495000</v>
+        <v>973.495</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.980600</v>
+        <v>-87.980599999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>12690.026869</v>
+        <v>12690.026868999999</v>
       </c>
       <c r="AP10" s="1">
         <v>3.525007</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.737000</v>
+        <v>982.73699999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.085000</v>
+        <v>-103.08499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>12701.124359</v>
+        <v>12701.124358999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.528090</v>
+        <v>3.5280900000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.200000</v>
+        <v>994.2</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.779000</v>
+        <v>-124.779</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>12712.424254</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.531229</v>
+        <v>3.5312290000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.763000</v>
+        <v>-143.76300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>12723.196826</v>
+        <v>12723.196825999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.534221</v>
+        <v>3.5342210000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>12734.108811</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.537252</v>
+        <v>3.5372520000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.918000</v>
+        <v>-365.91800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>12745.548639</v>
+        <v>12745.548639000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.540430</v>
+        <v>3.5404300000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.730000</v>
+        <v>1260.73</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.073000</v>
+        <v>-578.07299999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>12756.465486</v>
+        <v>12756.465485999999</v>
       </c>
       <c r="BT10" s="1">
         <v>3.543463</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.960000</v>
+        <v>1408.96</v>
       </c>
       <c r="BV10" s="1">
-        <v>-805.595000</v>
+        <v>-805.59500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>12767.551567</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.546542</v>
+        <v>3.5465420000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1572.460000</v>
+        <v>1572.46</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1042.480000</v>
+        <v>-1042.48</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>12778.935280</v>
+        <v>12778.93528</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.549704</v>
+        <v>3.5497040000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1987.310000</v>
+        <v>1987.31</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1596.420000</v>
+        <v>-1596.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>12606.719813</v>
       </c>
       <c r="B11" s="1">
-        <v>3.501867</v>
+        <v>3.5018669999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>901.428000</v>
+        <v>901.428</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.673000</v>
+        <v>-194.673</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>12616.803511</v>
       </c>
       <c r="G11" s="1">
-        <v>3.504668</v>
+        <v>3.5046680000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>918.186000</v>
+        <v>918.18600000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.077000</v>
+        <v>-165.077</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>12627.246281</v>
@@ -2824,103 +3240,103 @@
         <v>3.507568</v>
       </c>
       <c r="M11" s="1">
-        <v>940.513000</v>
+        <v>940.51300000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.187000</v>
+        <v>-118.187</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>12637.846283</v>
+        <v>12637.846283000001</v>
       </c>
       <c r="Q11" s="1">
         <v>3.510513</v>
       </c>
       <c r="R11" s="1">
-        <v>946.922000</v>
+        <v>946.92200000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.168000</v>
+        <v>-103.16800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>12648.321299</v>
+        <v>12648.321298999999</v>
       </c>
       <c r="V11" s="1">
         <v>3.513423</v>
       </c>
       <c r="W11" s="1">
-        <v>953.352000</v>
+        <v>953.35199999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.619600</v>
+        <v>-89.619600000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>12658.809663</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.516336</v>
+        <v>3.5163359999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.500000</v>
+        <v>960.5</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.315700</v>
+        <v>-80.315700000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>12669.298562</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.519250</v>
+        <v>3.51925</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.502000</v>
+        <v>965.50199999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.023200</v>
+        <v>-80.023200000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>12679.709627</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.522142</v>
+        <v>3.5221420000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.485000</v>
+        <v>973.48500000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.979300</v>
+        <v>-87.979299999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>12690.398869</v>
+        <v>12690.398869000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.525111</v>
+        <v>3.5251109999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.719000</v>
+        <v>982.71900000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.063000</v>
+        <v>-103.063</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>12701.851494</v>
@@ -2929,829 +3345,829 @@
         <v>3.528292</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.210000</v>
+        <v>994.21</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.804000</v>
+        <v>-124.804</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>12712.610248</v>
+        <v>12712.610248000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.531281</v>
+        <v>3.5312809999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.747000</v>
+        <v>-143.74700000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>12723.575769</v>
+        <v>12723.575768999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.534327</v>
+        <v>3.5343270000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.400000</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.978000</v>
+        <v>-228.97800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>12734.483034</v>
+        <v>12734.483034000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.537356</v>
+        <v>3.5373559999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.903000</v>
+        <v>-365.90300000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>12746.254347</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.540626</v>
+        <v>3.5406260000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.103000</v>
+        <v>-578.10299999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>12757.185181</v>
+        <v>12757.185181000001</v>
       </c>
       <c r="BT11" s="1">
         <v>3.543663</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.920000</v>
+        <v>1408.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-805.587000</v>
+        <v>-805.58699999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>12767.688495</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.546580</v>
+        <v>3.5465800000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1572.490000</v>
+        <v>1572.49</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1042.390000</v>
+        <v>-1042.3900000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>12779.454064</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.549848</v>
+        <v>3.5498479999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.540000</v>
+        <v>1987.54</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1594.960000</v>
+        <v>-1594.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>12607.063043</v>
       </c>
       <c r="B12" s="1">
-        <v>3.501962</v>
+        <v>3.5019619999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>901.254000</v>
+        <v>901.25400000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.632000</v>
+        <v>-194.63200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>12617.228054</v>
+        <v>12617.228053999999</v>
       </c>
       <c r="G12" s="1">
-        <v>3.504786</v>
+        <v>3.5047860000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>918.099000</v>
+        <v>918.09900000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.881000</v>
+        <v>-164.881</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>12627.658424</v>
+        <v>12627.658423999999</v>
       </c>
       <c r="L12" s="1">
-        <v>3.507683</v>
+        <v>3.5076830000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.335000</v>
+        <v>940.33500000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.309000</v>
+        <v>-118.309</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>12638.129003</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.510591</v>
+        <v>3.5105909999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>946.898000</v>
+        <v>946.89800000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.198000</v>
+        <v>-103.19799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>12648.662509</v>
       </c>
       <c r="V12" s="1">
-        <v>3.513517</v>
+        <v>3.5135169999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>953.319000</v>
+        <v>953.31899999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.667100</v>
+        <v>-89.667100000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>12659.158350</v>
+        <v>12659.15835</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.516433</v>
+        <v>3.5164330000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.507000</v>
+        <v>960.50699999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.328700</v>
+        <v>-80.328699999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>12669.644272</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.519346</v>
+        <v>3.5193460000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.507000</v>
+        <v>965.50699999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.035100</v>
+        <v>-80.0351</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>12680.406994</v>
+        <v>12680.406994000001</v>
       </c>
       <c r="AK12" s="1">
         <v>3.522335</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.471000</v>
+        <v>973.471</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.953400</v>
+        <v>-87.953400000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>12691.122054</v>
+        <v>12691.122053999999</v>
       </c>
       <c r="AP12" s="1">
         <v>3.525312</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.742000</v>
+        <v>982.74199999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.085000</v>
+        <v>-103.08499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>12702.241846</v>
+        <v>12702.241846000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.528401</v>
+        <v>3.5284010000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.217000</v>
+        <v>994.21699999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.796000</v>
+        <v>-124.79600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>12712.968823</v>
+        <v>12712.968822999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>3.531380</v>
+        <v>3.53138</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.753000</v>
+        <v>-143.75299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>12723.954249</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.534432</v>
+        <v>3.5344319999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.961000</v>
+        <v>-228.96100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>12735.204474</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.537557</v>
+        <v>3.5375570000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.990000</v>
+        <v>1128.99</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.881000</v>
+        <v>-365.88099999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>12746.368427</v>
+        <v>12746.368426999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.540658</v>
+        <v>3.5406580000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.134000</v>
+        <v>-578.13400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>12757.306204</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.543696</v>
+        <v>3.5436960000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.840000</v>
+        <v>1408.84</v>
       </c>
       <c r="BV12" s="1">
-        <v>-805.578000</v>
+        <v>-805.57799999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>12768.114040</v>
+        <v>12768.11404</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.546698</v>
+        <v>3.5466980000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1572.580000</v>
+        <v>1572.58</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1042.290000</v>
+        <v>-1042.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>12779.975854</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.549993</v>
+        <v>3.5499930000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.570000</v>
+        <v>1987.57</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1595.120000</v>
+        <v>-1595.12</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>12607.485138</v>
       </c>
       <c r="B13" s="1">
-        <v>3.502079</v>
+        <v>3.5020790000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>901.435000</v>
+        <v>901.43499999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.615000</v>
+        <v>-194.61500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>12617.496422</v>
       </c>
       <c r="G13" s="1">
-        <v>3.504860</v>
+        <v>3.5048599999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>918.022000</v>
+        <v>918.02200000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.006000</v>
+        <v>-165.006</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>12627.945113</v>
       </c>
       <c r="L13" s="1">
-        <v>3.507763</v>
+        <v>3.5077630000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>940.277000</v>
+        <v>940.27700000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.266000</v>
+        <v>-118.26600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>12638.480169</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.510689</v>
+        <v>3.5106890000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>946.876000</v>
+        <v>946.87599999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.229000</v>
+        <v>-103.229</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>12649.006743</v>
       </c>
       <c r="V13" s="1">
-        <v>3.513613</v>
+        <v>3.5136129999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.323000</v>
+        <v>953.32299999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.625400</v>
+        <v>-89.625399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>12659.509022</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.516530</v>
+        <v>3.5165299999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.513000</v>
+        <v>960.51300000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.302000</v>
+        <v>-80.302000000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>12670.330240</v>
+        <v>12670.330239999999</v>
       </c>
       <c r="AF13" s="1">
         <v>3.519536</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.488000</v>
+        <v>965.48800000000006</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.026500</v>
+        <v>-80.026499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>12680.757138</v>
+        <v>12680.757138000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.522433</v>
+        <v>3.5224329999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.490000</v>
+        <v>973.49</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.986000</v>
+        <v>-87.986000000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>12691.500020</v>
+        <v>12691.500019999999</v>
       </c>
       <c r="AP13" s="1">
         <v>3.525417</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.741000</v>
+        <v>982.74099999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.075000</v>
+        <v>-103.075</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>12702.609422</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.528503</v>
+        <v>3.5285030000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.228000</v>
+        <v>994.22799999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.786000</v>
+        <v>-124.786</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>12713.636968</v>
+        <v>12713.636968000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.531566</v>
+        <v>3.5315660000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.763000</v>
+        <v>-143.76300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>12724.629272</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.534619</v>
+        <v>3.5346190000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.941000</v>
+        <v>-228.941</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>12735.634009</v>
+        <v>12735.634008999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.537676</v>
+        <v>3.5376759999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.880000</v>
+        <v>-365.88</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>12746.789532</v>
+        <v>12746.789532000001</v>
       </c>
       <c r="BO13" s="1">
         <v>3.540775</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.117000</v>
+        <v>-578.11699999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>12757.742684</v>
+        <v>12757.742684000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.543817</v>
+        <v>3.5438170000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV13" s="1">
-        <v>-805.548000</v>
+        <v>-805.548</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>12768.530701</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.546814</v>
+        <v>3.5468139999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1572.540000</v>
+        <v>1572.54</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1042.110000</v>
+        <v>-1042.1099999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>12780.537326</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.550149</v>
+        <v>3.5501490000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.960000</v>
+        <v>1986.96</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1596.580000</v>
+        <v>-1596.58</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>12607.753970</v>
+        <v>12607.75397</v>
       </c>
       <c r="B14" s="1">
         <v>3.502154</v>
       </c>
       <c r="C14" s="1">
-        <v>901.345000</v>
+        <v>901.34500000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.514000</v>
+        <v>-194.51400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>12617.840652</v>
+        <v>12617.840652000001</v>
       </c>
       <c r="G14" s="1">
         <v>3.504956</v>
       </c>
       <c r="H14" s="1">
-        <v>918.088000</v>
+        <v>918.08799999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.946000</v>
+        <v>-164.946</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>12628.289368</v>
       </c>
       <c r="L14" s="1">
-        <v>3.507858</v>
+        <v>3.5078580000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>940.413000</v>
+        <v>940.41300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.482000</v>
+        <v>-118.482</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>12638.826842</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.510785</v>
+        <v>3.5107849999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>946.868000</v>
+        <v>946.86800000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.197000</v>
+        <v>-103.197</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>12649.694683</v>
       </c>
       <c r="V14" s="1">
-        <v>3.513804</v>
+        <v>3.5138039999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.333000</v>
+        <v>953.33299999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.613000</v>
+        <v>-89.613</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>12660.206894</v>
+        <v>12660.206894000001</v>
       </c>
       <c r="AA14" s="1">
         <v>3.516724</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.476000</v>
+        <v>960.476</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.320200</v>
+        <v>-80.3202</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>12670.673999</v>
+        <v>12670.673999000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.519632</v>
+        <v>3.5196320000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.513000</v>
+        <v>965.51300000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.016000</v>
+        <v>-80.016000000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>12681.106321</v>
+        <v>12681.106320999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.522530</v>
+        <v>3.5225300000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.468000</v>
+        <v>973.46799999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.965200</v>
+        <v>-87.965199999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>12691.861113</v>
+        <v>12691.861113000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.525517</v>
+        <v>3.5255169999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.729000</v>
+        <v>982.72900000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.084000</v>
+        <v>-103.084</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>12703.288900</v>
+        <v>12703.2889</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.528691</v>
+        <v>3.5286909999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.213000</v>
+        <v>994.21299999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.787000</v>
+        <v>-124.78700000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>12714.070934</v>
+        <v>12714.070933999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.531686</v>
+        <v>3.5316860000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.753000</v>
+        <v>-143.75299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>12725.037975</v>
+        <v>12725.037974999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.534733</v>
+        <v>3.5347330000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.934000</v>
+        <v>-228.934</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>12736.039774</v>
+        <v>12736.039774000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.537789</v>
+        <v>3.5377890000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.990000</v>
+        <v>1128.99</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.899000</v>
+        <v>-365.899</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>12747.189337</v>
@@ -3760,180 +4176,180 @@
         <v>3.540886</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.730000</v>
+        <v>1260.73</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.107000</v>
+        <v>-578.10699999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>12758.173745</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.543937</v>
+        <v>3.5439370000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.511000</v>
+        <v>-805.51099999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>12768.977071</v>
+        <v>12768.977070999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.546938</v>
+        <v>3.5469379999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1572.380000</v>
+        <v>1572.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1042.250000</v>
+        <v>-1042.25</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>12781.054157</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.550293</v>
+        <v>3.5502929999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1987.590000</v>
+        <v>1987.59</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1595.220000</v>
+        <v>-1595.22</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>12608.097203</v>
+        <v>12608.097202999999</v>
       </c>
       <c r="B15" s="1">
-        <v>3.502249</v>
+        <v>3.5022489999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>901.469000</v>
+        <v>901.46900000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.515000</v>
+        <v>-194.51499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>12618.186820</v>
+        <v>12618.186820000001</v>
       </c>
       <c r="G15" s="1">
-        <v>3.505052</v>
+        <v>3.5050520000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>918.040000</v>
+        <v>918.04</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.592000</v>
+        <v>-165.59200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>12628.636535</v>
       </c>
       <c r="L15" s="1">
-        <v>3.507955</v>
+        <v>3.5079549999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.352000</v>
+        <v>940.35199999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.085000</v>
+        <v>-118.08499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>12639.524235</v>
+        <v>12639.524235000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.510979</v>
+        <v>3.5109789999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>946.896000</v>
+        <v>946.89599999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>12650.039402</v>
       </c>
       <c r="V15" s="1">
-        <v>3.513900</v>
+        <v>3.5139</v>
       </c>
       <c r="W15" s="1">
-        <v>953.300000</v>
+        <v>953.3</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.566500</v>
+        <v>-89.566500000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>12660.554588</v>
+        <v>12660.554588000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>3.516821</v>
+        <v>3.5168210000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.439000</v>
+        <v>960.43899999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.305900</v>
+        <v>-80.305899999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>12671.016703</v>
+        <v>12671.016702999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.519727</v>
+        <v>3.5197270000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.500000</v>
+        <v>965.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.002800</v>
+        <v>-80.002799999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>12681.755613</v>
+        <v>12681.755612999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.522710</v>
+        <v>3.52271</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.491000</v>
+        <v>973.49099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.974000</v>
+        <v>-87.974000000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>12692.529187</v>
@@ -3942,58 +4358,58 @@
         <v>3.525703</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.728000</v>
+        <v>982.72799999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.070000</v>
+        <v>-103.07</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>12703.726404</v>
+        <v>12703.726403999999</v>
       </c>
       <c r="AU15" s="1">
         <v>3.528813</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.216000</v>
+        <v>994.21600000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.793000</v>
+        <v>-124.79300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>12714.430037</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.531786</v>
+        <v>3.5317859999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.760000</v>
+        <v>-143.76</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>12725.429851</v>
+        <v>12725.429851000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.534842</v>
+        <v>3.5348419999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.938000</v>
+        <v>-228.93799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>12736.415208</v>
@@ -4002,210 +4418,210 @@
         <v>3.537893</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.906000</v>
+        <v>-365.90600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>12747.611929</v>
+        <v>12747.611929000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.541003</v>
+        <v>3.5410029999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.104000</v>
+        <v>-578.10400000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>12758.597670</v>
+        <v>12758.597669999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.544055</v>
+        <v>3.5440550000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.790000</v>
+        <v>1408.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.495000</v>
+        <v>-805.495</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>12769.398670</v>
+        <v>12769.39867</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.547055</v>
+        <v>3.5470549999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1572.410000</v>
+        <v>1572.41</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1042.510000</v>
+        <v>-1042.51</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>12781.575485</v>
+        <v>12781.575484999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.550438</v>
+        <v>3.5504380000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.590000</v>
+        <v>1985.59</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1595.240000</v>
+        <v>-1595.24</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>12608.438450</v>
+        <v>12608.43845</v>
       </c>
       <c r="B16" s="1">
-        <v>3.502344</v>
+        <v>3.5023439999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>901.311000</v>
+        <v>901.31100000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.462000</v>
+        <v>-194.46199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12618.873317</v>
       </c>
       <c r="G16" s="1">
-        <v>3.505243</v>
+        <v>3.5052430000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.340000</v>
+        <v>918.34</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.450000</v>
+        <v>-165.45</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>12629.329445</v>
+        <v>12629.329444999999</v>
       </c>
       <c r="L16" s="1">
-        <v>3.508147</v>
+        <v>3.5081470000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.448000</v>
+        <v>940.44799999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.319000</v>
+        <v>-118.319</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>12639.872906</v>
+        <v>12639.872906000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.511076</v>
+        <v>3.5110760000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.189000</v>
+        <v>-103.18899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>12650.382138</v>
+        <v>12650.382138000001</v>
       </c>
       <c r="V16" s="1">
         <v>3.513995</v>
       </c>
       <c r="W16" s="1">
-        <v>953.293000</v>
+        <v>953.29300000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.596300</v>
+        <v>-89.596299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>12660.899837</v>
+        <v>12660.899837000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.516917</v>
+        <v>3.5169169999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.501000</v>
+        <v>960.50099999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.380100</v>
+        <v>-80.380099999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>12671.674398</v>
+        <v>12671.674397999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.519910</v>
+        <v>3.5199099999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.974400</v>
+        <v>-79.974400000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>12682.148455</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.522819</v>
+        <v>3.5228190000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.485000</v>
+        <v>973.48500000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.990600</v>
+        <v>-87.990600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>12692.940898</v>
+        <v>12692.940898000001</v>
       </c>
       <c r="AP16" s="1">
         <v>3.525817</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.745000</v>
+        <v>982.745</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.101000</v>
+        <v>-103.101</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>12704.094901</v>
@@ -4214,195 +4630,195 @@
         <v>3.528915</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.210000</v>
+        <v>994.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.804000</v>
+        <v>-124.804</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>12714.788180</v>
+        <v>12714.78818</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.531886</v>
+        <v>3.5318860000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.745000</v>
+        <v>-143.745</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>12725.789947</v>
+        <v>12725.789946999999</v>
       </c>
       <c r="BE16" s="1">
         <v>3.534942</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.410000</v>
+        <v>1049.4100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.945000</v>
+        <v>-228.94499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>12736.836809</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.538010</v>
+        <v>3.5380099999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.899000</v>
+        <v>-365.899</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>12748.009192</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.541114</v>
+        <v>3.5411139999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.077000</v>
+        <v>-578.077</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>12759.016906</v>
+        <v>12759.016906000001</v>
       </c>
       <c r="BT16" s="1">
         <v>3.544171</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.478000</v>
+        <v>-805.47799999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>12769.822788</v>
+        <v>12769.822787999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.547173</v>
+        <v>3.5471729999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1572.540000</v>
+        <v>1572.54</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1042.440000</v>
+        <v>-1042.44</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>12782.112020</v>
+        <v>12782.11202</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.550587</v>
+        <v>3.5505870000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.640000</v>
+        <v>1987.64</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1596.320000</v>
+        <v>-1596.32</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>12609.117474</v>
+        <v>12609.117474000001</v>
       </c>
       <c r="B17" s="1">
-        <v>3.502533</v>
+        <v>3.5025330000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>901.433000</v>
+        <v>901.43299999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.711000</v>
+        <v>-194.71100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>12619.218499</v>
+        <v>12619.218499000001</v>
       </c>
       <c r="G17" s="1">
-        <v>3.505338</v>
+        <v>3.5053380000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>918.586000</v>
+        <v>918.58600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.040000</v>
+        <v>-165.04</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>12629.675157</v>
       </c>
       <c r="L17" s="1">
-        <v>3.508243</v>
+        <v>3.5082429999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>940.184000</v>
+        <v>940.18399999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.241000</v>
+        <v>-118.241</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>12640.223079</v>
+        <v>12640.223078999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.511173</v>
+        <v>3.5111729999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.925000</v>
+        <v>946.92499999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>12651.035865</v>
       </c>
       <c r="V17" s="1">
-        <v>3.514177</v>
+        <v>3.5141770000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.259000</v>
+        <v>953.25900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.661800</v>
+        <v>-89.661799999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>12661.556524</v>
@@ -4411,133 +4827,133 @@
         <v>3.517099</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.495000</v>
+        <v>960.495</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.367200</v>
+        <v>-80.367199999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>12672.055376</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.520015</v>
+        <v>3.5200149999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.005200</v>
+        <v>-80.005200000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>12682.499087</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.522916</v>
+        <v>3.5229159999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.497000</v>
+        <v>973.49699999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.993500</v>
+        <v>-87.993499999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>12693.328245</v>
+        <v>12693.328245000001</v>
       </c>
       <c r="AP17" s="1">
         <v>3.525925</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.726000</v>
+        <v>982.726</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.092000</v>
+        <v>-103.092</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>12704.454996</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.529015</v>
+        <v>3.5290149999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.216000</v>
+        <v>994.21600000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.806000</v>
+        <v>-124.806</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>12715.218202</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.532005</v>
+        <v>3.5320049999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.910000</v>
+        <v>1003.91</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.749000</v>
+        <v>-143.749</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>12726.220474</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.535061</v>
+        <v>3.5350609999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.370000</v>
+        <v>1049.3699999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.975000</v>
+        <v>-228.97499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>12737.190455</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.538108</v>
+        <v>3.5381079999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.980000</v>
+        <v>1128.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.937000</v>
+        <v>-365.93700000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>12748.428840</v>
+        <v>12748.42884</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.541230</v>
+        <v>3.5412300000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.710000</v>
+        <v>1260.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.074000</v>
+        <v>-578.07399999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>12759.441482</v>
@@ -4546,135 +4962,135 @@
         <v>3.544289</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.780000</v>
+        <v>1408.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.435000</v>
+        <v>-805.43499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>12770.269645</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.547297</v>
+        <v>3.5472969999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1572.540000</v>
+        <v>1572.54</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1042.370000</v>
+        <v>-1042.3699999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>12782.653260</v>
+        <v>12782.653259999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.550737</v>
+        <v>3.5507369999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1986.500000</v>
+        <v>1986.5</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1594.460000</v>
+        <v>-1594.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>12609.462688</v>
       </c>
       <c r="B18" s="1">
-        <v>3.502629</v>
+        <v>3.5026290000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>901.242000</v>
+        <v>901.24199999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.732000</v>
+        <v>-194.732</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>12619.566690</v>
+        <v>12619.56669</v>
       </c>
       <c r="G18" s="1">
-        <v>3.505435</v>
+        <v>3.5054349999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.186000</v>
+        <v>918.18600000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.812000</v>
+        <v>-164.81200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>12630.011940</v>
+        <v>12630.01194</v>
       </c>
       <c r="L18" s="1">
         <v>3.508337</v>
       </c>
       <c r="M18" s="1">
-        <v>940.418000</v>
+        <v>940.41800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.257000</v>
+        <v>-118.25700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>12640.877334</v>
+        <v>12640.877334000001</v>
       </c>
       <c r="Q18" s="1">
         <v>3.511355</v>
       </c>
       <c r="R18" s="1">
-        <v>946.871000</v>
+        <v>946.87099999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.224000</v>
+        <v>-103.224</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>12651.418280</v>
+        <v>12651.41828</v>
       </c>
       <c r="V18" s="1">
-        <v>3.514283</v>
+        <v>3.5142829999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>953.269000</v>
+        <v>953.26900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.616800</v>
+        <v>-89.616799999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>12661.946394</v>
+        <v>12661.946394000001</v>
       </c>
       <c r="AA18" s="1">
         <v>3.517207</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.401000</v>
+        <v>960.40099999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.317400</v>
+        <v>-80.317400000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>12672.399054</v>
@@ -4683,166 +5099,166 @@
         <v>3.520111</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.511000</v>
+        <v>965.51099999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.014700</v>
+        <v>-80.014700000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>12682.849759</v>
+        <v>12682.849759000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.523014</v>
+        <v>3.5230139999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.506000</v>
+        <v>973.50599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.962000</v>
+        <v>-87.962000000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>12693.683409</v>
+        <v>12693.683408999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.526023</v>
+        <v>3.5260229999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.731000</v>
+        <v>982.73099999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.091000</v>
+        <v>-103.09099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>12704.878083</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.529133</v>
+        <v>3.5291329999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.210000</v>
+        <v>994.21</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.792000</v>
+        <v>-124.792</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>12715.507348</v>
+        <v>12715.507347999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.532085</v>
+        <v>3.5320849999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>12726.514101</v>
+        <v>12726.514101000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.535143</v>
+        <v>3.5351430000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.958000</v>
+        <v>-228.958</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>12737.566920</v>
+        <v>12737.566919999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.538213</v>
+        <v>3.5382129999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.980000</v>
+        <v>1128.98</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.911000</v>
+        <v>-365.911</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>12748.827096</v>
+        <v>12748.827096000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.541341</v>
+        <v>3.5413410000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.700000</v>
+        <v>1260.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.141000</v>
+        <v>-578.14099999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>12759.852703</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.544404</v>
+        <v>3.5444040000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.403000</v>
+        <v>-805.40300000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>12770.702155</v>
+        <v>12770.702155000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.547417</v>
+        <v>3.5474169999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1572.570000</v>
+        <v>1572.57</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1042.260000</v>
+        <v>-1042.26</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>12783.194394</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.550887</v>
+        <v>3.5508869999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1986.310000</v>
+        <v>1986.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1596.120000</v>
+        <v>-1596.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>12609.803973</v>
       </c>
@@ -4850,43 +5266,43 @@
         <v>3.502723</v>
       </c>
       <c r="C19" s="1">
-        <v>901.321000</v>
+        <v>901.32100000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.703000</v>
+        <v>-194.703</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>12620.217938</v>
       </c>
       <c r="G19" s="1">
-        <v>3.505616</v>
+        <v>3.5056159999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>918.195000</v>
+        <v>918.19500000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.045000</v>
+        <v>-165.04499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>12630.706836</v>
+        <v>12630.706835999999</v>
       </c>
       <c r="L19" s="1">
-        <v>3.508530</v>
+        <v>3.5085299999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.374000</v>
+        <v>940.37400000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.266000</v>
+        <v>-118.26600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>12641.266199</v>
@@ -4895,58 +5311,58 @@
         <v>3.511463</v>
       </c>
       <c r="R19" s="1">
-        <v>946.874000</v>
+        <v>946.87400000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.191000</v>
+        <v>-103.191</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>12651.765976</v>
+        <v>12651.765976000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.514379</v>
+        <v>3.5143789999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>953.313000</v>
+        <v>953.31299999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.612200</v>
+        <v>-89.612200000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>12662.284139</v>
+        <v>12662.284138999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.517301</v>
+        <v>3.5173009999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.491000</v>
+        <v>960.49099999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.279900</v>
+        <v>-80.279899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>12672.743276</v>
+        <v>12672.743275999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.520206</v>
+        <v>3.5202059999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.518000</v>
+        <v>965.51800000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.016700</v>
+        <v>-80.0167</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>12683.265421</v>
@@ -4955,133 +5371,133 @@
         <v>3.523129</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.507000</v>
+        <v>973.50699999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.969300</v>
+        <v>-87.969300000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>12694.111455</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.526142</v>
+        <v>3.5261420000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.728000</v>
+        <v>982.72799999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.084000</v>
+        <v>-103.084</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>12705.185107</v>
+        <v>12705.185106999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.529218</v>
+        <v>3.5292180000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.213000</v>
+        <v>994.21299999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.812000</v>
+        <v>-124.812</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>12715.868435</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.532186</v>
+        <v>3.5321859999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.753000</v>
+        <v>-143.75299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>12726.874660</v>
+        <v>12726.874659999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.535243</v>
+        <v>3.5352429999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.943000</v>
+        <v>-228.94300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>12737.942423</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.538317</v>
+        <v>3.5383170000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.980000</v>
+        <v>1128.98</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.912000</v>
+        <v>-365.91199999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>12749.253159</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.541459</v>
+        <v>3.5414590000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.134000</v>
+        <v>-578.13400000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>12760.288649</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.544525</v>
+        <v>3.5445250000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.760000</v>
+        <v>1408.76</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.336000</v>
+        <v>-805.33600000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>12771.122266</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.547534</v>
+        <v>3.5475340000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1572.660000</v>
+        <v>1572.66</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1042.420000</v>
+        <v>-1042.42</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>12783.733579</v>
@@ -5090,30 +5506,30 @@
         <v>3.551037</v>
       </c>
       <c r="CE19" s="1">
-        <v>1987.670000</v>
+        <v>1987.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1595.560000</v>
+        <v>-1595.56</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>12610.460803</v>
       </c>
       <c r="B20" s="1">
-        <v>3.502906</v>
+        <v>3.5029059999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>901.280000</v>
+        <v>901.28</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.508000</v>
+        <v>-194.50800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>12620.600354</v>
@@ -5122,498 +5538,498 @@
         <v>3.505722</v>
       </c>
       <c r="H20" s="1">
-        <v>918.271000</v>
+        <v>918.27099999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.140000</v>
+        <v>-165.14</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>12631.058995</v>
+        <v>12631.058994999999</v>
       </c>
       <c r="L20" s="1">
-        <v>3.508627</v>
+        <v>3.5086270000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.270000</v>
+        <v>940.27</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.341000</v>
+        <v>-118.34099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>12641.618338</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.511561</v>
+        <v>3.5115609999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.159000</v>
+        <v>-103.15900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>12652.110199</v>
+        <v>12652.110199000001</v>
       </c>
       <c r="V20" s="1">
         <v>3.514475</v>
       </c>
       <c r="W20" s="1">
-        <v>953.300000</v>
+        <v>953.3</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.610000</v>
+        <v>-89.61</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>12662.650186</v>
+        <v>12662.650186000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.517403</v>
+        <v>3.5174029999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.446000</v>
+        <v>960.44600000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.334400</v>
+        <v>-80.334400000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>12673.170859</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.520325</v>
+        <v>3.5203250000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.510000</v>
+        <v>965.51</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.986400</v>
+        <v>-79.986400000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>12683.543662</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.523207</v>
+        <v>3.5232070000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.480000</v>
+        <v>973.48</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.942900</v>
+        <v>-87.942899999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>12694.406048</v>
+        <v>12694.406048000001</v>
       </c>
       <c r="AP20" s="1">
         <v>3.526224</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.738000</v>
+        <v>982.73800000000006</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.085000</v>
+        <v>-103.08499999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>12705.552426</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.529320</v>
+        <v>3.5293199999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.220000</v>
+        <v>994.22</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.788000</v>
+        <v>-124.788</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>12716.226579</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.532285</v>
+        <v>3.5322849999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.674000</v>
+        <v>-143.67400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>12727.235749</v>
+        <v>12727.235748999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.535343</v>
+        <v>3.5353430000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>12738.691349</v>
+        <v>12738.691349000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.538525</v>
+        <v>3.5385249999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.909000</v>
+        <v>-365.90899999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>12749.644040</v>
+        <v>12749.644039999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.541568</v>
+        <v>3.5415679999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.097000</v>
+        <v>-578.09699999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>12760.716733</v>
+        <v>12760.716732999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.544644</v>
+        <v>3.5446439999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.253000</v>
+        <v>-805.25300000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>12771.546487</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.547652</v>
+        <v>3.5476519999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1572.520000</v>
+        <v>1572.52</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1042.290000</v>
+        <v>-1042.29</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>12784.594601</v>
+        <v>12784.594601000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.551276</v>
+        <v>3.5512760000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.130000</v>
+        <v>1986.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1596.500000</v>
+        <v>-1596.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>12610.835120</v>
+        <v>12610.83512</v>
       </c>
       <c r="B21" s="1">
-        <v>3.503010</v>
+        <v>3.5030100000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>901.283000</v>
+        <v>901.28300000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.622000</v>
+        <v>-194.62200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>12620.943207</v>
       </c>
       <c r="G21" s="1">
-        <v>3.505818</v>
+        <v>3.5058180000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>918.120000</v>
+        <v>918.12</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.193000</v>
+        <v>-165.19300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>12631.403715</v>
       </c>
       <c r="L21" s="1">
-        <v>3.508723</v>
+        <v>3.5087229999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>940.318000</v>
+        <v>940.31799999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.220000</v>
+        <v>-118.22</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>12641.962551</v>
+        <v>12641.962551000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.511656</v>
+        <v>3.5116559999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.891000</v>
+        <v>946.89099999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.189000</v>
+        <v>-103.18899999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>12652.532295</v>
+        <v>12652.532295000001</v>
       </c>
       <c r="V21" s="1">
-        <v>3.514592</v>
+        <v>3.5145919999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>953.280000</v>
+        <v>953.28</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.636400</v>
+        <v>-89.636399999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>12663.071289</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.517520</v>
+        <v>3.5175200000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.544000</v>
+        <v>960.54399999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.399600</v>
+        <v>-80.399600000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>12673.440651</v>
+        <v>12673.440651000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.520400</v>
+        <v>3.5204</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.558000</v>
+        <v>965.55799999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.018200</v>
+        <v>-80.018199999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>12683.893378</v>
+        <v>12683.893378000001</v>
       </c>
       <c r="AK21" s="1">
         <v>3.523304</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.496000</v>
+        <v>973.49599999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.990800</v>
+        <v>-87.990799999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>12694.767631</v>
+        <v>12694.767631000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.526324</v>
+        <v>3.5263239999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.724000</v>
+        <v>982.72400000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>12705.914258</v>
+        <v>12705.914258000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.529421</v>
+        <v>3.5294210000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.207000</v>
+        <v>994.20699999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.789000</v>
+        <v>-124.789</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>12716.945282</v>
+        <v>12716.945282000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.532485</v>
+        <v>3.5324849999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.920000</v>
+        <v>1003.92</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.650000</v>
+        <v>-143.65</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>12727.959907</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.535544</v>
+        <v>3.5355439999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.970000</v>
+        <v>-228.97</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>12739.067812</v>
+        <v>12739.067811999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.538630</v>
+        <v>3.5386299999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.030000</v>
+        <v>1129.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.869000</v>
+        <v>-365.86900000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>12750.070567</v>
+        <v>12750.070567000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.541686</v>
+        <v>3.5416859999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.710000</v>
+        <v>1260.71</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.087000</v>
+        <v>-578.08699999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>12761.128872</v>
+        <v>12761.128871999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.544758</v>
+        <v>3.5447579999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.760000</v>
+        <v>1408.76</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.288000</v>
+        <v>-805.28800000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>12772.282446</v>
+        <v>12772.282445999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.547856</v>
+        <v>3.5478559999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1572.370000</v>
+        <v>1572.37</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1042.280000</v>
+        <v>-1042.28</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>12784.813368</v>
+        <v>12784.813367999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.551337</v>
+        <v>3.5513370000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.140000</v>
+        <v>1986.14</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1596.320000</v>
+        <v>-1596.32</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>12611.173917</v>
       </c>
@@ -5621,43 +6037,43 @@
         <v>3.503104</v>
       </c>
       <c r="C22" s="1">
-        <v>901.327000</v>
+        <v>901.327</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.552000</v>
+        <v>-194.55199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>12621.288304</v>
       </c>
       <c r="G22" s="1">
-        <v>3.505913</v>
+        <v>3.5059130000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.007000</v>
+        <v>918.00699999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.895000</v>
+        <v>-164.89500000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>12631.836258</v>
+        <v>12631.836257999999</v>
       </c>
       <c r="L22" s="1">
-        <v>3.508843</v>
+        <v>3.5088430000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>940.411000</v>
+        <v>940.41099999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.272000</v>
+        <v>-118.27200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>12642.386669</v>
@@ -5666,13 +6082,13 @@
         <v>3.511774</v>
       </c>
       <c r="R22" s="1">
-        <v>946.900000</v>
+        <v>946.9</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.207000</v>
+        <v>-103.20699999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>12652.817991</v>
@@ -5681,73 +6097,73 @@
         <v>3.514672</v>
       </c>
       <c r="W22" s="1">
-        <v>953.263000</v>
+        <v>953.26300000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.539700</v>
+        <v>-89.539699999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>12663.350538</v>
+        <v>12663.350538000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.517597</v>
+        <v>3.5175969999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.624000</v>
+        <v>960.62400000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.382800</v>
+        <v>-80.382800000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>12673.785867</v>
+        <v>12673.785867000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.520496</v>
+        <v>3.5204960000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.495000</v>
+        <v>965.495</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.042500</v>
+        <v>-80.042500000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>12684.240575</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.523400</v>
+        <v>3.5234000000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.492000</v>
+        <v>973.49199999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.967100</v>
+        <v>-87.967100000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>12695.126282</v>
+        <v>12695.126281999999</v>
       </c>
       <c r="AP22" s="1">
         <v>3.526424</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.745000</v>
+        <v>982.745</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.101000</v>
+        <v>-103.101</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>12706.644337</v>
@@ -5756,58 +6172,58 @@
         <v>3.529623</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.208000</v>
+        <v>994.20799999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.786000</v>
+        <v>-124.786</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>12717.301197</v>
+        <v>12717.301197000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.532584</v>
+        <v>3.5325839999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.647000</v>
+        <v>-143.64699999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>12728.407300</v>
+        <v>12728.407300000001</v>
       </c>
       <c r="BE22" s="1">
         <v>3.535669</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>12739.442294</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.538734</v>
+        <v>3.5387339999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.980000</v>
+        <v>1128.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.914000</v>
+        <v>-365.91399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>12750.781837</v>
@@ -5816,90 +6232,90 @@
         <v>3.541884</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.730000</v>
+        <v>1260.73</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.121000</v>
+        <v>-578.12099999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>12761.569847</v>
+        <v>12761.569847000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.544881</v>
+        <v>3.5448810000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.750000</v>
+        <v>1408.75</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.230000</v>
+        <v>-805.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>12772.389544</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.547886</v>
+        <v>3.5478860000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1572.320000</v>
+        <v>1572.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1042.470000</v>
+        <v>-1042.47</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>12785.333672</v>
+        <v>12785.333672000001</v>
       </c>
       <c r="CD22" s="1">
         <v>3.551482</v>
       </c>
       <c r="CE22" s="1">
-        <v>1987.270000</v>
+        <v>1987.27</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1595.900000</v>
+        <v>-1595.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>12611.517153</v>
+        <v>12611.517153000001</v>
       </c>
       <c r="B23" s="1">
         <v>3.503199</v>
       </c>
       <c r="C23" s="1">
-        <v>901.098000</v>
+        <v>901.09799999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.528000</v>
+        <v>-194.52799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>12621.705936</v>
       </c>
       <c r="G23" s="1">
-        <v>3.506029</v>
+        <v>3.5060289999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>918.000000</v>
+        <v>918</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.980000</v>
+        <v>-164.98</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>12632.094148</v>
@@ -5908,58 +6324,58 @@
         <v>3.508915</v>
       </c>
       <c r="M23" s="1">
-        <v>940.574000</v>
+        <v>940.57399999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.178000</v>
+        <v>-118.178</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>12642.659956</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.511850</v>
+        <v>3.5118499999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.877000</v>
+        <v>946.87699999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.212000</v>
+        <v>-103.212</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>12653.149349</v>
+        <v>12653.149348999999</v>
       </c>
       <c r="V23" s="1">
         <v>3.514764</v>
       </c>
       <c r="W23" s="1">
-        <v>953.286000</v>
+        <v>953.28599999999994</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.607300</v>
+        <v>-89.607299999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>12663.699224</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.517694</v>
+        <v>3.5176940000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.528000</v>
+        <v>960.52800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.330700</v>
+        <v>-80.330699999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>12674.128639</v>
@@ -5968,73 +6384,73 @@
         <v>3.520591</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.517000</v>
+        <v>965.51700000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.014200</v>
+        <v>-80.014200000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>12684.940924</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.523595</v>
+        <v>3.5235949999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.476000</v>
+        <v>973.476</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.002800</v>
+        <v>-88.002799999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>12695.842498</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.526623</v>
+        <v>3.5266229999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.737000</v>
+        <v>982.73699999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.071000</v>
+        <v>-103.071</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>12707.034192</v>
+        <v>12707.034191999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.529732</v>
+        <v>3.5297320000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.206000</v>
+        <v>994.20600000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.789000</v>
+        <v>-124.789</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>12717.660977</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.532684</v>
+        <v>3.5326840000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.626000</v>
+        <v>-143.626</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>12729.039234</v>
@@ -6043,58 +6459,58 @@
         <v>3.535844</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.971000</v>
+        <v>-228.971</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>12740.129749</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.538925</v>
+        <v>3.5389249999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.020000</v>
+        <v>1129.02</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.924000</v>
+        <v>-365.92399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>12750.894917</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.541915</v>
+        <v>3.5419149999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.095000</v>
+        <v>-578.09500000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>12761.981494</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.544995</v>
+        <v>3.5449950000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.760000</v>
+        <v>1408.76</v>
       </c>
       <c r="BV23" s="1">
-        <v>-805.209000</v>
+        <v>-805.20899999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>12772.820072</v>
@@ -6103,288 +6519,288 @@
         <v>3.548006</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1572.630000</v>
+        <v>1572.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1042.340000</v>
+        <v>-1042.3399999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>12785.850007</v>
+        <v>12785.850006999999</v>
       </c>
       <c r="CD23" s="1">
         <v>3.551625</v>
       </c>
       <c r="CE23" s="1">
-        <v>1987.200000</v>
+        <v>1987.2</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.330000</v>
+        <v>-1596.33</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>12611.940205</v>
+        <v>12611.940205000001</v>
       </c>
       <c r="B24" s="1">
         <v>3.503317</v>
       </c>
       <c r="C24" s="1">
-        <v>901.353000</v>
+        <v>901.35299999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.491000</v>
+        <v>-194.49100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>12621.984223</v>
+        <v>12621.984222999999</v>
       </c>
       <c r="G24" s="1">
-        <v>3.506107</v>
+        <v>3.5061070000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>918.207000</v>
+        <v>918.20699999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.838000</v>
+        <v>-164.83799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>12632.440353</v>
       </c>
       <c r="L24" s="1">
-        <v>3.509011</v>
+        <v>3.5090110000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>940.241000</v>
+        <v>940.24099999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.342000</v>
+        <v>-118.342</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>12643.013571</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.511948</v>
+        <v>3.5119479999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>946.844000</v>
+        <v>946.84400000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.202000</v>
+        <v>-103.202</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>12653.492593</v>
+        <v>12653.492593000001</v>
       </c>
       <c r="V24" s="1">
         <v>3.514859</v>
       </c>
       <c r="W24" s="1">
-        <v>953.327000</v>
+        <v>953.327</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.626200</v>
+        <v>-89.626199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>12664.398592</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.517888</v>
+        <v>3.5178880000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.458000</v>
+        <v>960.45799999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.311400</v>
+        <v>-80.311400000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>12674.817546</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.520783</v>
+        <v>3.5207830000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.515000</v>
+        <v>965.51499999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.012500</v>
+        <v>-80.012500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>12685.289580</v>
+        <v>12685.289580000001</v>
       </c>
       <c r="AK24" s="1">
         <v>3.523692</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.483000</v>
+        <v>973.48299999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.961100</v>
+        <v>-87.961100000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>12696.206029</v>
+        <v>12696.206029000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.526724</v>
+        <v>3.5267240000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.748000</v>
+        <v>982.74800000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.081000</v>
+        <v>-103.081</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>12707.399246</v>
+        <v>12707.399246000001</v>
       </c>
       <c r="AU24" s="1">
         <v>3.529833</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.183000</v>
+        <v>994.18299999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.799000</v>
+        <v>-124.79900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>12718.324662</v>
+        <v>12718.324662000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.532868</v>
+        <v>3.5328680000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.880000</v>
+        <v>1003.88</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.662000</v>
+        <v>-143.66200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>12729.450135</v>
+        <v>12729.450134999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.535958</v>
+        <v>3.5359579999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.390000</v>
+        <v>1049.3900000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.972000</v>
+        <v>-228.97200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>12740.570692</v>
+        <v>12740.570691999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.539047</v>
+        <v>3.5390470000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.910000</v>
+        <v>-365.91</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>12751.306102</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.542029</v>
+        <v>3.5420289999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.100000</v>
+        <v>-578.1</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>12762.395158</v>
+        <v>12762.395157999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.545110</v>
+        <v>3.5451100000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV24" s="1">
-        <v>-805.190000</v>
+        <v>-805.19</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>12773.246357</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.548124</v>
+        <v>3.5481240000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1572.590000</v>
+        <v>1572.59</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1042.370000</v>
+        <v>-1042.3699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>12786.404502</v>
+        <v>12786.404501999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.551779</v>
+        <v>3.5517789999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1985.830000</v>
+        <v>1985.83</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1596.250000</v>
+        <v>-1596.25</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>12612.214988</v>
       </c>
@@ -6392,13 +6808,13 @@
         <v>3.503393</v>
       </c>
       <c r="C25" s="1">
-        <v>901.280000</v>
+        <v>901.28</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.578000</v>
+        <v>-194.578</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>12622.328416</v>
@@ -6407,465 +6823,465 @@
         <v>3.506202</v>
       </c>
       <c r="H25" s="1">
-        <v>918.378000</v>
+        <v>918.37800000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.930000</v>
+        <v>-164.93</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>12632.787553</v>
       </c>
       <c r="L25" s="1">
-        <v>3.509108</v>
+        <v>3.5091079999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>940.137000</v>
+        <v>940.13699999999994</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.383000</v>
+        <v>-118.383</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>12643.362788</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.512045</v>
+        <v>3.5120450000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.832000</v>
+        <v>946.83199999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.175000</v>
+        <v>-103.175</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>12654.183476</v>
       </c>
       <c r="V25" s="1">
-        <v>3.515051</v>
+        <v>3.5150510000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>953.236000</v>
+        <v>953.23599999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.600000</v>
+        <v>-89.6</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>12664.745814</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.517985</v>
+        <v>3.5179849999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.442000</v>
+        <v>960.44200000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.306900</v>
+        <v>-80.306899999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>12675.157801</v>
+        <v>12675.157800999999</v>
       </c>
       <c r="AF25" s="1">
         <v>3.520877</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.512000</v>
+        <v>965.51199999999994</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.067600</v>
+        <v>-80.067599999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>12685.634299</v>
+        <v>12685.634298999999</v>
       </c>
       <c r="AK25" s="1">
         <v>3.523787</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.482000</v>
+        <v>973.48199999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.984500</v>
+        <v>-87.984499999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>12696.880093</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.526911</v>
+        <v>3.5269110000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.717000</v>
+        <v>982.71699999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>12708.077774</v>
+        <v>12708.077773999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.530022</v>
+        <v>3.5300220000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.212000</v>
+        <v>994.21199999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.820000</v>
+        <v>-124.82</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>12718.772513</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.532992</v>
+        <v>3.5329920000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.890000</v>
+        <v>1003.89</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.663000</v>
+        <v>-143.66300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>12729.810978</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.536059</v>
+        <v>3.5360589999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.966000</v>
+        <v>-228.96600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>12740.944210</v>
+        <v>12740.94421</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.539151</v>
+        <v>3.5391509999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.980000</v>
+        <v>1128.98</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.914000</v>
+        <v>-365.91399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>12751.702932</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.542140</v>
+        <v>3.5421399999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.141000</v>
+        <v>-578.14099999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>12762.827173</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.545230</v>
+        <v>3.5452300000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.750000</v>
+        <v>1408.75</v>
       </c>
       <c r="BV25" s="1">
-        <v>-805.122000</v>
+        <v>-805.12199999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>12773.664796</v>
+        <v>12773.664795999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.548240</v>
+        <v>3.5482399999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1572.560000</v>
+        <v>1572.56</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1042.360000</v>
+        <v>-1042.3599999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>12786.931253</v>
+        <v>12786.931253000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.551925</v>
+        <v>3.5519250000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1987.240000</v>
+        <v>1987.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1596.210000</v>
+        <v>-1596.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>12612.555279</v>
       </c>
       <c r="B26" s="1">
-        <v>3.503488</v>
+        <v>3.5034879999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>901.239000</v>
+        <v>901.23900000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.594000</v>
+        <v>-194.59399999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>12622.674624</v>
+        <v>12622.674623999999</v>
       </c>
       <c r="G26" s="1">
-        <v>3.506299</v>
+        <v>3.5062989999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>918.185000</v>
+        <v>918.18499999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.239000</v>
+        <v>-165.239</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>12633.483440</v>
+        <v>12633.48344</v>
       </c>
       <c r="L26" s="1">
-        <v>3.509301</v>
+        <v>3.5093009999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>940.449000</v>
+        <v>940.44899999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.061000</v>
+        <v>-118.06100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>12644.060626</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.512239</v>
+        <v>3.5122390000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.839000</v>
+        <v>946.83900000000006</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>12654.524229</v>
+        <v>12654.524229000001</v>
       </c>
       <c r="V26" s="1">
-        <v>3.515146</v>
+        <v>3.5151460000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.272000</v>
+        <v>953.27200000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.549500</v>
+        <v>-89.549499999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>12665.095000</v>
+        <v>12665.094999999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.518082</v>
+        <v>3.5180820000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.460000</v>
+        <v>960.46</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.268800</v>
+        <v>-80.268799999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>12675.503512</v>
+        <v>12675.503511999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.520973</v>
+        <v>3.5209730000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.497000</v>
+        <v>965.49699999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.048100</v>
+        <v>-80.048100000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>12686.291002</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.523970</v>
+        <v>3.5239699999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.482000</v>
+        <v>973.48199999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.979200</v>
+        <v>-87.979200000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>12697.306652</v>
+        <v>12697.306651999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.527030</v>
+        <v>3.5270299999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.735000</v>
+        <v>982.73500000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>12708.524701</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.530146</v>
+        <v>3.5301459999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.196000</v>
+        <v>994.19600000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.805000</v>
+        <v>-124.80500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>12719.130128</v>
+        <v>12719.130128000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.533092</v>
+        <v>3.5330919999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.870000</v>
+        <v>1003.87</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.665000</v>
+        <v>-143.66499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>12730.173553</v>
+        <v>12730.173553000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.536159</v>
+        <v>3.5361590000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.380000</v>
+        <v>1049.3800000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.947000</v>
+        <v>-228.947</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>12741.319651</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.539255</v>
+        <v>3.5392549999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.990000</v>
+        <v>1128.99</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.941000</v>
+        <v>-365.94099999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>12752.127477</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.542258</v>
+        <v>3.5422579999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.106000</v>
+        <v>-578.10599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>12763.253237</v>
+        <v>12763.253237000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.545348</v>
+        <v>3.5453480000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.750000</v>
+        <v>1408.75</v>
       </c>
       <c r="BV26" s="1">
-        <v>-805.137000</v>
+        <v>-805.13699999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>12774.092815</v>
@@ -6874,30 +7290,31 @@
         <v>3.548359</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1572.520000</v>
+        <v>1572.52</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1042.330000</v>
+        <v>-1042.33</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>12787.453540</v>
+        <v>12787.45354</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.552070</v>
+        <v>3.5520700000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.910000</v>
+        <v>1986.91</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1594.400000</v>
+        <v>-1594.4</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>